--- a/data/raw/Federal_Funds_Effective_Rate_data.xlsx
+++ b/data/raw/Federal_Funds_Effective_Rate_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -29,937 +29,871 @@
     <t xml:space="preserve">2025-02-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-01-01</t>
+    <t xml:space="preserve">2006-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">2.28</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
+    <t xml:space="preserve">2008-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-01</t>
   </si>
   <si>
     <t xml:space="preserve">3.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-01</t>
   </si>
   <si>
     <t xml:space="preserve">2022-12-01</t>
@@ -1542,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1553,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1567,10 +1501,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1581,10 +1515,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1595,10 +1529,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1609,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -1623,10 +1557,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1571,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1651,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1665,10 +1599,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1679,10 +1613,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -1693,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1707,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1721,10 +1655,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
@@ -1735,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1749,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -1763,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -1777,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1791,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1805,10 +1739,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -1819,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
@@ -1833,10 +1767,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1847,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
@@ -1861,10 +1795,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
@@ -1875,10 +1809,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -1889,10 +1823,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
@@ -1903,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
@@ -1917,10 +1851,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
         <v>63</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1931,10 +1865,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
         <v>65</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39">
@@ -1945,10 +1879,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
         <v>67</v>
-      </c>
-      <c r="D39" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="40">
@@ -1959,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
         <v>69</v>
-      </c>
-      <c r="D40" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -1973,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1987,10 +1921,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -2001,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -2015,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -2029,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46">
@@ -2043,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
@@ -2057,10 +1991,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -2071,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -2085,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -2099,10 +2033,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -2113,10 +2047,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
@@ -2127,10 +2061,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53">
@@ -2141,10 +2075,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
@@ -2155,10 +2089,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
@@ -2169,10 +2103,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56">
@@ -2183,10 +2117,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
@@ -2197,10 +2131,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58">
@@ -2211,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
@@ -2225,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
@@ -2239,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
@@ -2253,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62">
@@ -2267,10 +2201,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63">
@@ -2281,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64">
@@ -2295,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
@@ -2309,10 +2243,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66">
@@ -2323,10 +2257,10 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
@@ -2337,10 +2271,10 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
@@ -2351,10 +2285,10 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69">
@@ -2365,10 +2299,10 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
@@ -2379,10 +2313,10 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71">
@@ -2393,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72">
@@ -2407,10 +2341,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73">
@@ -2421,10 +2355,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
@@ -2435,10 +2369,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
@@ -2449,10 +2383,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
@@ -2463,10 +2397,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
@@ -2477,10 +2411,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
@@ -2491,10 +2425,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79">
@@ -2505,10 +2439,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80">
@@ -2519,10 +2453,10 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81">
@@ -2533,10 +2467,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
@@ -2547,10 +2481,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
@@ -2561,10 +2495,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84">
@@ -2575,10 +2509,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85">
@@ -2589,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86">
@@ -2603,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
@@ -2617,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88">
@@ -2631,10 +2565,10 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
@@ -2645,10 +2579,10 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90">
@@ -2659,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
@@ -2673,10 +2607,10 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
@@ -2687,10 +2621,10 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
@@ -2701,10 +2635,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94">
@@ -2715,10 +2649,10 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
@@ -2729,10 +2663,10 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
@@ -2743,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
@@ -2757,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
@@ -2771,10 +2705,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
@@ -2785,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
@@ -2799,10 +2733,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101">
@@ -2813,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
@@ -2827,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D102" t="s">
         <v>105</v>
@@ -2841,10 +2775,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D103" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
@@ -2855,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D104" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105">
@@ -2869,10 +2803,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
@@ -2883,10 +2817,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
@@ -2897,10 +2831,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
@@ -2911,10 +2845,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
@@ -2925,10 +2859,10 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D109" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110">
@@ -2939,10 +2873,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111">
@@ -2953,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112">
@@ -2967,10 +2901,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D112" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113">
@@ -2981,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D113" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2929,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D114" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115">
@@ -3009,10 +2943,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
@@ -3023,10 +2957,10 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
@@ -3037,10 +2971,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D117" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118">
@@ -3051,10 +2985,10 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D118" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119">
@@ -3065,10 +2999,10 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D119" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120">
@@ -3079,10 +3013,10 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D120" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121">
@@ -3093,10 +3027,10 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D121" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
@@ -3107,10 +3041,10 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D122" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
@@ -3121,10 +3055,10 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D123" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
@@ -3135,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
@@ -3149,10 +3083,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D125" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126">
@@ -3163,10 +3097,10 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D126" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127">
@@ -3177,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D127" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128">
@@ -3191,10 +3125,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D128" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129">
@@ -3205,10 +3139,10 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D129" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130">
@@ -3219,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D130" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131">
@@ -3233,10 +3167,10 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D131" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132">
@@ -3247,10 +3181,10 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D132" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133">
@@ -3261,10 +3195,10 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D133" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134">
@@ -3275,10 +3209,10 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D134" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135">
@@ -3289,10 +3223,10 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D135" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136">
@@ -3303,10 +3237,10 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D136" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137">
@@ -3317,10 +3251,10 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D137" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138">
@@ -3331,10 +3265,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D138" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139">
@@ -3345,10 +3279,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D139" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140">
@@ -3359,10 +3293,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D140" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141">
@@ -3373,10 +3307,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D141" t="s">
         <v>198</v>
-      </c>
-      <c r="D141" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="142">
@@ -3387,10 +3321,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D142" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143">
@@ -3401,10 +3335,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144">
@@ -3415,10 +3349,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D144" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145">
@@ -3429,10 +3363,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D145" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146">
@@ -3443,10 +3377,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D146" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147">
@@ -3457,10 +3391,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D147" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148">
@@ -3471,10 +3405,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D148" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149">
@@ -3485,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D149" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150">
@@ -3499,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D150" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151">
@@ -3513,10 +3447,10 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D151" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152">
@@ -3527,10 +3461,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D152" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153">
@@ -3541,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D153" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154">
@@ -3555,10 +3489,10 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D154" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155">
@@ -3569,10 +3503,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D155" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156">
@@ -3583,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
+        <v>223</v>
+      </c>
+      <c r="D156" t="s">
         <v>224</v>
-      </c>
-      <c r="D156" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="157">
@@ -3628,7 +3562,7 @@
         <v>229</v>
       </c>
       <c r="D159" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160">
@@ -3639,10 +3573,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
+        <v>230</v>
+      </c>
+      <c r="D160" t="s">
         <v>231</v>
-      </c>
-      <c r="D160" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="161">
@@ -3653,10 +3587,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
+        <v>232</v>
+      </c>
+      <c r="D161" t="s">
         <v>233</v>
-      </c>
-      <c r="D161" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="162">
@@ -3667,10 +3601,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
+        <v>234</v>
+      </c>
+      <c r="D162" t="s">
         <v>235</v>
-      </c>
-      <c r="D162" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="163">
@@ -3681,10 +3615,10 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
+        <v>236</v>
+      </c>
+      <c r="D163" t="s">
         <v>237</v>
-      </c>
-      <c r="D163" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="164">
@@ -3695,10 +3629,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D164" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165">
@@ -3709,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D165" t="s">
         <v>240</v>
@@ -3723,10 +3657,10 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
+        <v>241</v>
+      </c>
+      <c r="D166" t="s">
         <v>242</v>
-      </c>
-      <c r="D166" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="167">
@@ -3737,10 +3671,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
+        <v>243</v>
+      </c>
+      <c r="D167" t="s">
         <v>244</v>
-      </c>
-      <c r="D167" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="168">
@@ -3751,10 +3685,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
+        <v>245</v>
+      </c>
+      <c r="D168" t="s">
         <v>246</v>
-      </c>
-      <c r="D168" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="169">
@@ -3765,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D169" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170">
@@ -3779,10 +3713,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D170" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171">
@@ -3793,10 +3727,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D171" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="172">
@@ -3807,10 +3741,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D172" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173">
@@ -3821,10 +3755,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174">
@@ -3835,10 +3769,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D174" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175">
@@ -3849,10 +3783,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D175" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
     </row>
     <row r="176">
@@ -3863,10 +3797,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D176" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
     </row>
     <row r="177">
@@ -3877,10 +3811,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D177" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178">
@@ -3891,10 +3825,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D178" t="s">
-        <v>265</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179">
@@ -3905,10 +3839,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D179" t="s">
-        <v>267</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180">
@@ -3919,10 +3853,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D180" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181">
@@ -3933,10 +3867,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D181" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182">
@@ -3947,10 +3881,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D182" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183">
@@ -3961,10 +3895,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D183" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
     </row>
     <row r="184">
@@ -3975,10 +3909,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D184" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
     </row>
     <row r="185">
@@ -3989,10 +3923,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D185" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186">
@@ -4003,10 +3937,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D186" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187">
@@ -4017,10 +3951,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D187" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="188">
@@ -4031,10 +3965,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D188" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189">
@@ -4045,10 +3979,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D189" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190">
@@ -4059,10 +3993,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D190" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="191">
@@ -4073,10 +4007,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D191" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192">
@@ -4087,10 +4021,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D192" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="193">
@@ -4101,10 +4035,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D193" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="194">
@@ -4115,10 +4049,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D194" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="195">
@@ -4129,10 +4063,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D195" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196">
@@ -4143,10 +4077,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D196" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197">
@@ -4157,10 +4091,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D197" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
     </row>
     <row r="198">
@@ -4171,10 +4105,10 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D198" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199">
@@ -4185,10 +4119,10 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D199" t="s">
-        <v>134</v>
+        <v>283</v>
       </c>
     </row>
     <row r="200">
@@ -4199,10 +4133,10 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D200" t="s">
-        <v>126</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201">
@@ -4213,10 +4147,10 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D201" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
     </row>
     <row r="202">
@@ -4227,10 +4161,10 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D202" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
     </row>
     <row r="203">
@@ -4241,10 +4175,10 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D203" t="s">
-        <v>134</v>
+        <v>291</v>
       </c>
     </row>
     <row r="204">
@@ -4255,10 +4189,10 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D204" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
     </row>
     <row r="205">
@@ -4269,10 +4203,10 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D205" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206">
@@ -4283,10 +4217,10 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D206" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
     </row>
     <row r="207">
@@ -4297,10 +4231,10 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
+        <v>298</v>
+      </c>
+      <c r="D207" t="s">
         <v>299</v>
-      </c>
-      <c r="D207" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="208">
@@ -4314,7 +4248,7 @@
         <v>300</v>
       </c>
       <c r="D208" t="s">
-        <v>110</v>
+        <v>301</v>
       </c>
     </row>
     <row r="209">
@@ -4325,10 +4259,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D209" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="210">
@@ -4339,10 +4273,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D210" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="211">
@@ -4353,10 +4287,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D211" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212">
@@ -4367,10 +4301,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D212" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="213">
@@ -4381,10 +4315,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D213" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="214">
@@ -4395,10 +4329,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
+        <v>312</v>
+      </c>
+      <c r="D214" t="s">
         <v>311</v>
-      </c>
-      <c r="D214" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="215">
@@ -4412,7 +4346,7 @@
         <v>313</v>
       </c>
       <c r="D215" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216">
@@ -4423,10 +4357,10 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D216" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217">
@@ -4437,10 +4371,10 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D217" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218">
@@ -4451,10 +4385,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D218" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="219">
@@ -4465,10 +4399,10 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D219" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220">
@@ -4479,10 +4413,10 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D220" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="221">
@@ -4493,10 +4427,10 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D221" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222">
@@ -4507,10 +4441,10 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D222" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223">
@@ -4521,10 +4455,10 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D223" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="224">
@@ -4535,10 +4469,10 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D224" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="225">
@@ -4549,10 +4483,10 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D225" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226">
@@ -4563,10 +4497,10 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D226" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="227">
@@ -4577,10 +4511,10 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D227" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
     </row>
     <row r="228">
@@ -4591,10 +4525,10 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D228" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229">
@@ -4605,10 +4539,10 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D229" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="230">
@@ -4619,178 +4553,10 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D230" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>339</v>
-      </c>
-      <c r="D231" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>340</v>
-      </c>
-      <c r="D232" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>341</v>
-      </c>
-      <c r="D233" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>342</v>
-      </c>
-      <c r="D234" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>343</v>
-      </c>
-      <c r="D235" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>344</v>
-      </c>
-      <c r="D236" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>345</v>
-      </c>
-      <c r="D237" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>346</v>
-      </c>
-      <c r="D238" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>348</v>
-      </c>
-      <c r="D239" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>349</v>
-      </c>
-      <c r="D240" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>351</v>
-      </c>
-      <c r="D241" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>353</v>
-      </c>
-      <c r="D242" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
